--- a/30_temp.xlsx
+++ b/30_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnl\Documents\Weather_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A771C4C9-0622-4981-8E29-D83357FC02ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE50318-D023-49D2-8F00-EA2475D796D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="2376" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30_temp" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,23 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[$-409]mmmm\-yy;@"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,32 +177,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,18 +365,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -497,21 +486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFDDDDDD"/>
       </left>
@@ -524,26 +498,6 @@
       <bottom style="medium">
         <color rgb="FFDDDDDD"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -591,26 +545,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -966,648 +906,1488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:U169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>39814</v>
+      </c>
+      <c r="B2" s="1">
+        <v>55.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>39845</v>
+      </c>
+      <c r="B3" s="1">
+        <v>58.69</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>39873</v>
+      </c>
+      <c r="B4" s="1">
+        <v>65.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>39904</v>
+      </c>
+      <c r="B5" s="1">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>39934</v>
+      </c>
+      <c r="B6" s="1">
+        <v>78.180000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>39965</v>
+      </c>
+      <c r="B7" s="1">
+        <v>83.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>39995</v>
+      </c>
+      <c r="B8" s="1">
+        <v>84.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>40026</v>
+      </c>
+      <c r="B9" s="1">
+        <v>82.7</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>40057</v>
+      </c>
+      <c r="B10" s="1">
+        <v>80.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>40087</v>
+      </c>
+      <c r="B11" s="1">
+        <v>71.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>40118</v>
+      </c>
+      <c r="B12" s="1">
+        <v>61.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>40148</v>
+      </c>
+      <c r="B13" s="1">
+        <v>53.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>40179</v>
+      </c>
+      <c r="B14" s="1">
+        <v>48.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>40210</v>
+      </c>
+      <c r="B15" s="1">
+        <v>48.26</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>40238</v>
+      </c>
+      <c r="B16" s="1">
+        <v>57.98</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>40269</v>
+      </c>
+      <c r="B17" s="1">
+        <v>70.150000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>40299</v>
+      </c>
+      <c r="B18" s="1">
+        <v>79.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>40330</v>
+      </c>
+      <c r="B19" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>40360</v>
+      </c>
+      <c r="B20" s="1">
+        <v>84.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>40391</v>
+      </c>
+      <c r="B21" s="1">
+        <v>84.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>40422</v>
+      </c>
+      <c r="B22" s="1">
+        <v>82.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>40452</v>
+      </c>
+      <c r="B23" s="1">
+        <v>72.239999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>40483</v>
+      </c>
+      <c r="B24" s="1">
+        <v>63.64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>40513</v>
+      </c>
+      <c r="B25" s="1">
+        <v>51.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>40544</v>
+      </c>
+      <c r="B26" s="1">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>40575</v>
+      </c>
+      <c r="B27" s="1">
+        <v>56.67</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>40603</v>
+      </c>
+      <c r="B28" s="1">
+        <v>66.66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>40634</v>
+      </c>
+      <c r="B29" s="1">
+        <v>73.989999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>40664</v>
+      </c>
+      <c r="B30" s="1">
+        <v>77.319999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>40695</v>
+      </c>
+      <c r="B31" s="1">
+        <v>84.97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>40725</v>
+      </c>
+      <c r="B32" s="1">
+        <v>84.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>40756</v>
+      </c>
+      <c r="B33" s="1">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>40787</v>
+      </c>
+      <c r="B34" s="1">
+        <v>78.42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>40817</v>
+      </c>
+      <c r="B35" s="1">
+        <v>69.28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>40848</v>
+      </c>
+      <c r="B36" s="1">
+        <v>64.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>40878</v>
+      </c>
+      <c r="B37" s="1">
+        <v>57.77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>40909</v>
+      </c>
+      <c r="B38" s="1">
+        <v>60.82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>40940</v>
+      </c>
+      <c r="B39" s="1">
+        <v>61.07</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>40969</v>
+      </c>
+      <c r="B40" s="1">
+        <v>70.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>41000</v>
+      </c>
+      <c r="B41" s="1">
+        <v>72.88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>41030</v>
+      </c>
+      <c r="B42" s="1">
+        <v>79.319999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>41061</v>
+      </c>
+      <c r="B43" s="1">
+        <v>82.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>41091</v>
+      </c>
+      <c r="B44" s="1">
+        <v>83.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>41122</v>
+      </c>
+      <c r="B45" s="1">
+        <v>82.27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>41153</v>
+      </c>
+      <c r="B46" s="1">
+        <v>80.52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B47" s="1">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>41214</v>
+      </c>
+      <c r="B48" s="1">
+        <v>60.45</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>41244</v>
+      </c>
+      <c r="B49" s="1">
+        <v>58.89</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>41275</v>
+      </c>
+      <c r="B50" s="1">
+        <v>56.59</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>41306</v>
+      </c>
+      <c r="B51" s="1">
+        <v>57.72</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>41334</v>
+      </c>
+      <c r="B52" s="1">
+        <v>59.11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B53" s="1">
+        <v>68.180000000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>41395</v>
+      </c>
+      <c r="B54" s="1">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B55" s="1">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B56" s="1">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>41487</v>
+      </c>
+      <c r="B57" s="1">
+        <v>82.48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>41518</v>
+      </c>
+      <c r="B58" s="1">
+        <v>81.73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B59" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B60" s="1">
+        <v>59.82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B61" s="1">
+        <v>55.19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>41640</v>
+      </c>
+      <c r="B62" s="1">
+        <v>47.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B63" s="1">
+        <v>56.16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>41699</v>
+      </c>
+      <c r="B64" s="1">
+        <v>59.35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B65" s="1">
+        <v>68.73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B66" s="1">
+        <v>75.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B67" s="1">
+        <v>81.55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>41821</v>
+      </c>
+      <c r="B68" s="1">
+        <v>82.42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B69" s="1">
+        <v>84.35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B70" s="1">
+        <v>81.569999999999993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B71" s="1">
+        <v>72.59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B72" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B73" s="1">
+        <v>58.85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B74" s="1">
+        <v>51.95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B75" s="1">
+        <v>52.36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B76" s="1">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B77" s="1">
+        <v>73.63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B78" s="1">
+        <v>78.260000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>42156</v>
+      </c>
+      <c r="B79" s="1">
+        <v>82.42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B80" s="1">
+        <v>85.56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>42217</v>
+      </c>
+      <c r="B81" s="1">
+        <v>84.89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>42248</v>
+      </c>
+      <c r="B82" s="1">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B83" s="1">
+        <v>73.290000000000006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B84" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B85" s="1">
+        <v>64.61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B86" s="1">
+        <v>53.91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B87" s="1">
+        <v>58.93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B88" s="1">
+        <v>68.08</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B89" s="1">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B90" s="1">
+        <v>77.349999999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>42522</v>
+      </c>
+      <c r="B91" s="1">
+        <v>84.22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>42552</v>
+      </c>
+      <c r="B92" s="1">
+        <v>86.66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>42583</v>
+      </c>
+      <c r="B93" s="1">
+        <v>85.96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>42614</v>
+      </c>
+      <c r="B94" s="1">
+        <v>85.15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>42644</v>
+      </c>
+      <c r="B95" s="1">
+        <v>77.760000000000005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>42675</v>
+      </c>
+      <c r="B96" s="1">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>42705</v>
+      </c>
+      <c r="B97" s="1">
+        <v>59.45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B98" s="1">
+        <v>60.13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>42767</v>
+      </c>
+      <c r="B99" s="1">
+        <v>64.39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B100" s="1">
+        <v>67.349999999999994</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>42826</v>
+      </c>
+      <c r="B101" s="1">
+        <v>71.28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>42856</v>
+      </c>
+      <c r="B102" s="1">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B103" s="1">
+        <v>80.08</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>42917</v>
+      </c>
+      <c r="B104" s="1">
+        <v>83.22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B105" s="1">
+        <v>83.08</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
+        <v>42979</v>
+      </c>
+      <c r="B106" s="1">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
+        <v>43009</v>
+      </c>
+      <c r="B107" s="1">
+        <v>72.849999999999994</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B108" s="1">
+        <v>64.91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B109" s="1">
+        <v>55.69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B110" s="1">
+        <v>48.77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B111" s="1">
+        <v>68.05</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B112" s="1">
+        <v>65.34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B113" s="1">
+        <v>66.97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B114" s="1">
+        <v>79.97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B115" s="1">
+        <v>83.85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
+        <v>43282</v>
+      </c>
+      <c r="B116" s="1">
+        <v>84.92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B117" s="1">
+        <v>83.77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B118" s="1">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B119" s="1">
+        <v>76.69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B120" s="1">
+        <v>60.42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
+        <v>43435</v>
+      </c>
+      <c r="B121" s="1">
+        <v>58.89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>43466</v>
+      </c>
+      <c r="B122">
+        <v>54.49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B123">
+        <v>65.14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B124">
+        <v>63.19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B125">
+        <v>69.98</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B126">
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B127">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B128">
+        <v>84.27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B129">
+        <v>85.53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>43709</v>
+      </c>
+      <c r="B130">
+        <v>85.27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B131">
+        <v>75.48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B132">
+        <v>60.62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B133">
+        <v>59.56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
         <v>43831</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B134">
         <v>67.260000000000005</v>
       </c>
-      <c r="C1" s="7">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="D1" s="10">
-        <v>67.260000000000005</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
         <v>43862</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B135">
         <v>69.760000000000005</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="D2" s="5">
-        <v>69.760000000000005</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
         <v>43891</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B136">
         <v>81.13</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="D3" s="5">
-        <v>81.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
         <v>43922</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B137">
         <v>81.27</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="D4" s="5">
-        <v>81.27</v>
-      </c>
-      <c r="H4" s="5">
-        <v>69.760000000000005</v>
-      </c>
-      <c r="I4" s="5">
-        <v>81.13</v>
-      </c>
-      <c r="J4" s="5">
-        <v>81.27</v>
-      </c>
-      <c r="K4" s="5">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B138">
         <v>86.29</v>
       </c>
-      <c r="L4" s="5">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B139">
         <v>90.63</v>
       </c>
-      <c r="M4" s="5">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B140">
         <v>92.52</v>
       </c>
-      <c r="N4" s="5">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B141">
         <v>92.29</v>
       </c>
-      <c r="O4" s="5">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B142">
         <v>86.07</v>
       </c>
-      <c r="P4" s="5">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B143">
         <v>81.87</v>
       </c>
-      <c r="Q4" s="5">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B144">
         <v>75.17</v>
       </c>
-      <c r="R4" s="5">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B145">
         <v>66</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B5" s="5">
-        <v>86.29</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="D5" s="5">
-        <v>86.29</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B146">
         <v>64.23</v>
       </c>
-      <c r="J5" s="5">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B147">
         <v>63.46</v>
       </c>
-      <c r="K5" s="5">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B148">
         <v>75.06</v>
       </c>
-      <c r="L5" s="5">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B149">
         <v>77.400000000000006</v>
       </c>
-      <c r="M5" s="5">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B150">
         <v>84.45</v>
       </c>
-      <c r="N5" s="5">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B151">
         <v>89.6</v>
       </c>
-      <c r="O5" s="5">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B152">
         <v>91.9</v>
       </c>
-      <c r="P5" s="5">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B153">
         <v>92.81</v>
       </c>
-      <c r="Q5" s="5">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B154">
         <v>86.23</v>
       </c>
-      <c r="R5" s="5">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B155">
         <v>82.48</v>
       </c>
-      <c r="S5" s="5">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B156">
         <v>70.430000000000007</v>
       </c>
-      <c r="T5" s="5">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B157">
         <v>73.650000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>43983</v>
-      </c>
-      <c r="B6" s="5">
-        <v>90.63</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.69</v>
-      </c>
-      <c r="D6" s="5">
-        <v>90.63</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B158">
         <v>61.77</v>
       </c>
-      <c r="J6" s="5">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B159">
         <v>66.75</v>
       </c>
-      <c r="K6" s="5">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B160">
         <v>73.48</v>
       </c>
-      <c r="L6" s="5">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B161">
         <v>79.7</v>
       </c>
-      <c r="M6" s="5">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B162">
         <v>88.06</v>
       </c>
-      <c r="N6" s="5">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B163">
         <v>92.67</v>
       </c>
-      <c r="O6" s="5">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B164">
         <v>91.13</v>
       </c>
-      <c r="P6" s="5">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B165">
         <v>89.1</v>
       </c>
-      <c r="Q6" s="5">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B166">
         <v>88.5</v>
       </c>
-      <c r="R6" s="5">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B167">
         <v>79.94</v>
       </c>
-      <c r="S6" s="5">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B168">
         <v>70.53</v>
       </c>
-      <c r="T6" s="5">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B169">
         <v>66.39</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>44013</v>
-      </c>
-      <c r="B7" s="5">
-        <v>92.52</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.749</v>
-      </c>
-      <c r="D7" s="5">
-        <v>92.52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>44044</v>
-      </c>
-      <c r="B8" s="5">
-        <v>92.29</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="D8" s="5">
-        <v>92.29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>44075</v>
-      </c>
-      <c r="B9" s="5">
-        <v>86.07</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="D9" s="5">
-        <v>86.07</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>44105</v>
-      </c>
-      <c r="B10" s="5">
-        <v>81.87</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="D10" s="5">
-        <v>81.87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B11" s="5">
-        <v>75.17</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="D11" s="5">
-        <v>75.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
-        <v>44166</v>
-      </c>
-      <c r="B12" s="5">
-        <v>66</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="D12" s="5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B13" s="5">
-        <v>64.23</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="D13" s="5">
-        <v>64.23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>44228</v>
-      </c>
-      <c r="B14" s="5">
-        <v>63.46</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="D14" s="5">
-        <v>63.46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>44256</v>
-      </c>
-      <c r="B15" s="5">
-        <v>75.06</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="D15" s="5">
-        <v>75.06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
-        <v>44287</v>
-      </c>
-      <c r="B16" s="5">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="D16" s="5">
-        <v>77.400000000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>44317</v>
-      </c>
-      <c r="B17" s="5">
-        <v>84.45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="D17" s="5">
-        <v>84.45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
-        <v>44348</v>
-      </c>
-      <c r="B18" s="5">
-        <v>89.6</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.751</v>
-      </c>
-      <c r="D18" s="5">
-        <v>89.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>44378</v>
-      </c>
-      <c r="B19" s="5">
-        <v>91.9</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.754</v>
-      </c>
-      <c r="D19" s="5">
-        <v>91.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>44409</v>
-      </c>
-      <c r="B20" s="5">
-        <v>92.81</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="D20" s="5">
-        <v>92.81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
-        <v>44440</v>
-      </c>
-      <c r="B21" s="5">
-        <v>86.23</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="D21" s="5">
-        <v>86.23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>44470</v>
-      </c>
-      <c r="B22" s="5">
-        <v>82.48</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="D22" s="5">
-        <v>82.48</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>44501</v>
-      </c>
-      <c r="B23" s="5">
-        <v>70.430000000000007</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="D23" s="5">
-        <v>70.430000000000007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
-        <v>44531</v>
-      </c>
-      <c r="B24" s="5">
-        <v>73.650000000000006</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="D24" s="5">
-        <v>73.650000000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>44562</v>
-      </c>
-      <c r="B25" s="5">
-        <v>61.77</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="D25" s="5">
-        <v>61.77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>44593</v>
-      </c>
-      <c r="B26" s="5">
-        <v>66.75</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="D26" s="5">
-        <v>66.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
-        <v>44621</v>
-      </c>
-      <c r="B27" s="5">
-        <v>73.48</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="D27" s="5">
-        <v>73.48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>44652</v>
-      </c>
-      <c r="B28" s="5">
-        <v>79.7</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="D28" s="5">
-        <v>79.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
-        <v>44682</v>
-      </c>
-      <c r="B29" s="5">
-        <v>88.06</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="D29" s="5">
-        <v>88.06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>44713</v>
-      </c>
-      <c r="B30" s="5">
-        <v>92.67</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="D30" s="5">
-        <v>92.67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>44743</v>
-      </c>
-      <c r="B31" s="5">
-        <v>91.13</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="D31" s="5">
-        <v>91.13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
-        <v>44774</v>
-      </c>
-      <c r="B32" s="5">
-        <v>89.1</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0.83</v>
-      </c>
-      <c r="D32" s="5">
-        <v>89.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>44805</v>
-      </c>
-      <c r="B33" s="5">
-        <v>88.5</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0.69</v>
-      </c>
-      <c r="D33" s="5">
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>44835</v>
-      </c>
-      <c r="B34" s="5">
-        <v>79.94</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="D34" s="5">
-        <v>79.94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
-        <v>44866</v>
-      </c>
-      <c r="B35" s="5">
-        <v>70.53</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0.745</v>
-      </c>
-      <c r="D35" s="5">
-        <v>70.53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>44896</v>
-      </c>
-      <c r="B36" s="5">
-        <v>66.39</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="D36" s="5">
-        <v>66.39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/30_temp.xlsx
+++ b/30_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnl\Documents\Weather_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE50318-D023-49D2-8F00-EA2475D796D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEB6537-E9F3-436D-AA6C-E64D3BC4E5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30_temp" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -545,12 +545,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -906,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U169"/>
+  <dimension ref="A1:U174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,7 +918,7 @@
     <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -927,158 +928,146 @@
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>39814</v>
-      </c>
-      <c r="B2" s="1">
-        <v>55.34</v>
+        <v>39783</v>
+      </c>
+      <c r="B2" s="3">
+        <v>59.2</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>39845</v>
+        <v>39814</v>
       </c>
       <c r="B3" s="1">
-        <v>58.69</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+        <v>55.34</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>39873</v>
+        <v>39845</v>
       </c>
       <c r="B4" s="1">
-        <v>65.31</v>
-      </c>
+        <v>58.69</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>39904</v>
+        <v>39873</v>
       </c>
       <c r="B5" s="1">
-        <v>68.849999999999994</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+        <v>65.31</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>39934</v>
+        <v>39904</v>
       </c>
       <c r="B6" s="1">
-        <v>78.180000000000007</v>
-      </c>
+        <v>68.849999999999994</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>39965</v>
+        <v>39934</v>
       </c>
       <c r="B7" s="1">
-        <v>83.24</v>
+        <v>78.180000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>39995</v>
+        <v>39965</v>
       </c>
       <c r="B8" s="1">
-        <v>84.08</v>
+        <v>83.24</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>40026</v>
+        <v>39995</v>
       </c>
       <c r="B9" s="1">
-        <v>82.7</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+        <v>84.08</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>40057</v>
+        <v>40026</v>
       </c>
       <c r="B10" s="1">
-        <v>80.92</v>
-      </c>
+        <v>82.7</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>40087</v>
+        <v>40057</v>
       </c>
       <c r="B11" s="1">
-        <v>71.83</v>
+        <v>80.92</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>40118</v>
+        <v>40087</v>
       </c>
       <c r="B12" s="1">
-        <v>61.29</v>
+        <v>71.83</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>40148</v>
+        <v>40118</v>
       </c>
       <c r="B13" s="1">
-        <v>53.41</v>
+        <v>61.29</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>40179</v>
+        <v>40148</v>
       </c>
       <c r="B14" s="1">
-        <v>48.43</v>
+        <v>53.41</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>40210</v>
+        <v>40179</v>
       </c>
       <c r="B15" s="1">
-        <v>48.26</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+        <v>48.43</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>40238</v>
+        <v>40210</v>
       </c>
       <c r="B16" s="1">
-        <v>57.98</v>
+        <v>48.26</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1095,302 +1084,302 @@
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>40269</v>
+        <v>40238</v>
       </c>
       <c r="B17" s="1">
-        <v>70.150000000000006</v>
-      </c>
+        <v>57.98</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>40299</v>
+        <v>40269</v>
       </c>
       <c r="B18" s="1">
-        <v>79.95</v>
+        <v>70.150000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>40330</v>
+        <v>40299</v>
       </c>
       <c r="B19" s="1">
-        <v>84</v>
+        <v>79.95</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>40360</v>
+        <v>40330</v>
       </c>
       <c r="B20" s="1">
-        <v>84.64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>40391</v>
+        <v>40360</v>
       </c>
       <c r="B21" s="1">
-        <v>84.98</v>
+        <v>84.64</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>40422</v>
+        <v>40391</v>
       </c>
       <c r="B22" s="1">
-        <v>82.05</v>
+        <v>84.98</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>40452</v>
+        <v>40422</v>
       </c>
       <c r="B23" s="1">
-        <v>72.239999999999995</v>
+        <v>82.05</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>40483</v>
+        <v>40452</v>
       </c>
       <c r="B24" s="1">
-        <v>63.64</v>
+        <v>72.239999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>40513</v>
+        <v>40483</v>
       </c>
       <c r="B25" s="1">
-        <v>51.59</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>40544</v>
+        <v>40513</v>
       </c>
       <c r="B26" s="1">
-        <v>51.11</v>
+        <v>51.59</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>40575</v>
+        <v>40544</v>
       </c>
       <c r="B27" s="1">
-        <v>56.67</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+        <v>51.11</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>40603</v>
+        <v>40575</v>
       </c>
       <c r="B28" s="1">
-        <v>66.66</v>
-      </c>
+        <v>56.67</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>40634</v>
+        <v>40603</v>
       </c>
       <c r="B29" s="1">
-        <v>73.989999999999995</v>
+        <v>66.66</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>40664</v>
+        <v>40634</v>
       </c>
       <c r="B30" s="1">
-        <v>77.319999999999993</v>
+        <v>73.989999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>40695</v>
+        <v>40664</v>
       </c>
       <c r="B31" s="1">
-        <v>84.97</v>
+        <v>77.319999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>40725</v>
+        <v>40695</v>
       </c>
       <c r="B32" s="1">
-        <v>84.17</v>
+        <v>84.97</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>40756</v>
+        <v>40725</v>
       </c>
       <c r="B33" s="1">
-        <v>87.3</v>
+        <v>84.17</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>40787</v>
+        <v>40756</v>
       </c>
       <c r="B34" s="1">
-        <v>78.42</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>40817</v>
+        <v>40787</v>
       </c>
       <c r="B35" s="1">
-        <v>69.28</v>
+        <v>78.42</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>40848</v>
+        <v>40817</v>
       </c>
       <c r="B36" s="1">
-        <v>64.12</v>
+        <v>69.28</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>40878</v>
+        <v>40848</v>
       </c>
       <c r="B37" s="1">
-        <v>57.77</v>
+        <v>64.12</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>40909</v>
+        <v>40878</v>
       </c>
       <c r="B38" s="1">
-        <v>60.82</v>
+        <v>57.77</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>40940</v>
+        <v>40909</v>
       </c>
       <c r="B39" s="1">
-        <v>61.07</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
+        <v>60.82</v>
+      </c>
     </row>
     <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>40969</v>
+        <v>40940</v>
       </c>
       <c r="B40" s="1">
-        <v>70.72</v>
-      </c>
+        <v>61.07</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
     </row>
     <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>41000</v>
+        <v>40969</v>
       </c>
       <c r="B41" s="1">
-        <v>72.88</v>
+        <v>70.72</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>41030</v>
+        <v>41000</v>
       </c>
       <c r="B42" s="1">
-        <v>79.319999999999993</v>
+        <v>72.88</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>41061</v>
+        <v>41030</v>
       </c>
       <c r="B43" s="1">
-        <v>82.57</v>
+        <v>79.319999999999993</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>41091</v>
+        <v>41061</v>
       </c>
       <c r="B44" s="1">
-        <v>83.16</v>
+        <v>82.57</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>41122</v>
+        <v>41091</v>
       </c>
       <c r="B45" s="1">
-        <v>82.27</v>
+        <v>83.16</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>41153</v>
+        <v>41122</v>
       </c>
       <c r="B46" s="1">
-        <v>80.52</v>
+        <v>82.27</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>41183</v>
+        <v>41153</v>
       </c>
       <c r="B47" s="1">
-        <v>70.19</v>
+        <v>80.52</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>41214</v>
+        <v>41183</v>
       </c>
       <c r="B48" s="1">
-        <v>60.45</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+        <v>70.19</v>
+      </c>
     </row>
     <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>41244</v>
+        <v>41214</v>
       </c>
       <c r="B49" s="1">
-        <v>58.89</v>
+        <v>60.45</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1407,10 +1396,10 @@
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>41275</v>
+        <v>41244</v>
       </c>
       <c r="B50" s="1">
-        <v>56.59</v>
+        <v>58.89</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1427,10 +1416,10 @@
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
-        <v>41306</v>
+        <v>41275</v>
       </c>
       <c r="B51" s="1">
-        <v>57.72</v>
+        <v>56.59</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1447,946 +1436,1050 @@
     </row>
     <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
-        <v>41334</v>
+        <v>41306</v>
       </c>
       <c r="B52" s="1">
-        <v>59.11</v>
-      </c>
+        <v>57.72</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
-        <v>41365</v>
+        <v>41334</v>
       </c>
       <c r="B53" s="1">
-        <v>68.180000000000007</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
-        <v>41395</v>
+        <v>41365</v>
       </c>
       <c r="B54" s="1">
-        <v>73.5</v>
+        <v>68.180000000000007</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
-        <v>41426</v>
+        <v>41395</v>
       </c>
       <c r="B55" s="1">
-        <v>82.8</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
-        <v>41456</v>
+        <v>41426</v>
       </c>
       <c r="B56" s="1">
-        <v>82.3</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
-        <v>41487</v>
+        <v>41456</v>
       </c>
       <c r="B57" s="1">
-        <v>82.48</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
-        <v>41518</v>
+        <v>41487</v>
       </c>
       <c r="B58" s="1">
-        <v>81.73</v>
+        <v>82.48</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
-        <v>41548</v>
+        <v>41518</v>
       </c>
       <c r="B59" s="1">
-        <v>73</v>
+        <v>81.73</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
-        <v>41579</v>
+        <v>41548</v>
       </c>
       <c r="B60" s="1">
-        <v>59.82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
-        <v>41609</v>
+        <v>41579</v>
       </c>
       <c r="B61" s="1">
-        <v>55.19</v>
+        <v>59.82</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
-        <v>41640</v>
+        <v>41609</v>
       </c>
       <c r="B62" s="1">
-        <v>47.05</v>
+        <v>55.19</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
-        <v>41671</v>
+        <v>41640</v>
       </c>
       <c r="B63" s="1">
-        <v>56.16</v>
+        <v>47.05</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
-        <v>41699</v>
+        <v>41671</v>
       </c>
       <c r="B64" s="1">
-        <v>59.35</v>
+        <v>56.16</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
-        <v>41730</v>
+        <v>41699</v>
       </c>
       <c r="B65" s="1">
-        <v>68.73</v>
+        <v>59.35</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
-        <v>41760</v>
+        <v>41730</v>
       </c>
       <c r="B66" s="1">
-        <v>75.05</v>
+        <v>68.73</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
-        <v>41791</v>
+        <v>41760</v>
       </c>
       <c r="B67" s="1">
-        <v>81.55</v>
+        <v>75.05</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
-        <v>41821</v>
+        <v>41791</v>
       </c>
       <c r="B68" s="1">
-        <v>82.42</v>
+        <v>81.55</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
-        <v>41852</v>
+        <v>41821</v>
       </c>
       <c r="B69" s="1">
-        <v>84.35</v>
+        <v>82.42</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
-        <v>41883</v>
+        <v>41852</v>
       </c>
       <c r="B70" s="1">
-        <v>81.569999999999993</v>
+        <v>84.35</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
-        <v>41913</v>
+        <v>41883</v>
       </c>
       <c r="B71" s="1">
-        <v>72.59</v>
+        <v>81.569999999999993</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
-        <v>41944</v>
+        <v>41913</v>
       </c>
       <c r="B72" s="1">
-        <v>58</v>
+        <v>72.59</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
-        <v>41974</v>
+        <v>41944</v>
       </c>
       <c r="B73" s="1">
-        <v>58.85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
-        <v>42005</v>
+        <v>41974</v>
       </c>
       <c r="B74" s="1">
-        <v>51.95</v>
+        <v>58.85</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="B75" s="1">
-        <v>52.36</v>
+        <v>51.95</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
-        <v>42064</v>
+        <v>42036</v>
       </c>
       <c r="B76" s="1">
-        <v>66.400000000000006</v>
+        <v>52.36</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="B77" s="1">
-        <v>73.63</v>
+        <v>66.400000000000006</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
-        <v>42125</v>
+        <v>42095</v>
       </c>
       <c r="B78" s="1">
-        <v>78.260000000000005</v>
+        <v>73.63</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
-        <v>42156</v>
+        <v>42125</v>
       </c>
       <c r="B79" s="1">
-        <v>82.42</v>
+        <v>78.260000000000005</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
-        <v>42186</v>
+        <v>42156</v>
       </c>
       <c r="B80" s="1">
-        <v>85.56</v>
+        <v>82.42</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
-        <v>42217</v>
+        <v>42186</v>
       </c>
       <c r="B81" s="1">
-        <v>84.89</v>
+        <v>85.56</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
-        <v>42248</v>
+        <v>42217</v>
       </c>
       <c r="B82" s="1">
-        <v>80.5</v>
+        <v>84.89</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
-        <v>42278</v>
+        <v>42248</v>
       </c>
       <c r="B83" s="1">
-        <v>73.290000000000006</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="B84" s="1">
-        <v>67</v>
+        <v>73.290000000000006</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="B85" s="1">
-        <v>64.61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
-        <v>42370</v>
+        <v>42339</v>
       </c>
       <c r="B86" s="1">
-        <v>53.91</v>
+        <v>64.61</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
-        <v>42401</v>
+        <v>42370</v>
       </c>
       <c r="B87" s="1">
-        <v>58.93</v>
+        <v>53.91</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
-        <v>42430</v>
+        <v>42401</v>
       </c>
       <c r="B88" s="1">
-        <v>68.08</v>
+        <v>58.93</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
-        <v>42461</v>
+        <v>42430</v>
       </c>
       <c r="B89" s="1">
-        <v>71.5</v>
+        <v>68.08</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
-        <v>42491</v>
+        <v>42461</v>
       </c>
       <c r="B90" s="1">
-        <v>77.349999999999994</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
-        <v>42522</v>
+        <v>42491</v>
       </c>
       <c r="B91" s="1">
-        <v>84.22</v>
+        <v>77.349999999999994</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
-        <v>42552</v>
+        <v>42522</v>
       </c>
       <c r="B92" s="1">
-        <v>86.66</v>
+        <v>84.22</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
-        <v>42583</v>
+        <v>42552</v>
       </c>
       <c r="B93" s="1">
-        <v>85.96</v>
+        <v>86.66</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
-        <v>42614</v>
+        <v>42583</v>
       </c>
       <c r="B94" s="1">
-        <v>85.15</v>
+        <v>85.96</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="B95" s="1">
-        <v>77.760000000000005</v>
+        <v>85.15</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
-        <v>42675</v>
+        <v>42644</v>
       </c>
       <c r="B96" s="1">
-        <v>66.3</v>
+        <v>77.760000000000005</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
-        <v>42705</v>
+        <v>42675</v>
       </c>
       <c r="B97" s="1">
-        <v>59.45</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="B98" s="1">
-        <v>60.13</v>
+        <v>59.45</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
-        <v>42767</v>
+        <v>42736</v>
       </c>
       <c r="B99" s="1">
-        <v>64.39</v>
+        <v>60.13</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B100" s="1">
-        <v>67.349999999999994</v>
+        <v>64.39</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B101" s="1">
-        <v>71.28</v>
+        <v>67.349999999999994</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B102" s="1">
-        <v>73.900000000000006</v>
+        <v>71.28</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B103" s="1">
-        <v>80.08</v>
+        <v>73.900000000000006</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B104" s="1">
-        <v>83.22</v>
+        <v>80.08</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B105" s="1">
-        <v>83.08</v>
+        <v>83.22</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B106" s="1">
-        <v>80.099999999999994</v>
+        <v>83.08</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B107" s="1">
-        <v>72.849999999999994</v>
+        <v>80.099999999999994</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B108" s="1">
-        <v>64.91</v>
+        <v>72.849999999999994</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B109" s="1">
-        <v>55.69</v>
+        <v>64.91</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B110" s="1">
-        <v>48.77</v>
+        <v>55.69</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B111" s="1">
-        <v>68.05</v>
+        <v>48.77</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B112" s="1">
-        <v>65.34</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B113" s="1">
-        <v>66.97</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B114" s="1">
-        <v>79.97</v>
+        <v>66.97</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B115" s="1">
-        <v>83.85</v>
+        <v>79.97</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B116" s="1">
-        <v>84.92</v>
+        <v>83.85</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B117" s="1">
-        <v>83.77</v>
+        <v>84.92</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B118" s="1">
-        <v>83.33</v>
+        <v>83.77</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B119" s="1">
-        <v>76.69</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B120" s="1">
-        <v>60.42</v>
+        <v>76.69</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B121" s="1">
+        <v>60.42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="2">
         <v>43435</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B122" s="1">
         <v>58.89</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
-        <v>43466</v>
-      </c>
-      <c r="B122">
-        <v>54.49</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B123">
-        <v>65.14</v>
+        <v>54.49</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B124">
-        <v>63.19</v>
+        <v>65.14</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B125">
-        <v>69.98</v>
+        <v>63.19</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B126">
-        <v>79.599999999999994</v>
+        <v>69.98</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B127">
-        <v>84.13</v>
+        <v>79.599999999999994</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B128">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
         <v>43647</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>84.27</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
         <v>43678</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>85.53</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
         <v>43709</v>
       </c>
-      <c r="B130">
+      <c r="B131">
         <v>85.27</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
         <v>43739</v>
       </c>
-      <c r="B131">
+      <c r="B132">
         <v>75.48</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
         <v>43770</v>
       </c>
-      <c r="B132">
+      <c r="B133">
         <v>60.62</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+    <row r="134" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="2">
         <v>43800</v>
       </c>
-      <c r="B133">
+      <c r="B134">
         <v>59.56</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+    <row r="135" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="2">
         <v>43831</v>
       </c>
-      <c r="B134">
-        <v>67.260000000000005</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="B135" s="1">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="2">
         <v>43862</v>
       </c>
-      <c r="B135">
-        <v>69.760000000000005</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+      <c r="B136" s="1">
+        <v>60.98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="2">
         <v>43891</v>
       </c>
-      <c r="B136">
-        <v>81.13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+      <c r="B137" s="1">
+        <v>73.14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="2">
         <v>43922</v>
       </c>
-      <c r="B137">
-        <v>81.27</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
+      <c r="B138" s="1">
+        <v>72.650000000000006</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="2">
         <v>43952</v>
       </c>
-      <c r="B138">
-        <v>86.29</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
+      <c r="B139" s="1">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="2">
         <v>43983</v>
       </c>
-      <c r="B139">
-        <v>90.63</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
+      <c r="B140" s="1">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="2">
         <v>44013</v>
       </c>
-      <c r="B140">
-        <v>92.52</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
+      <c r="B141" s="1">
+        <v>85.53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="2">
         <v>44044</v>
       </c>
-      <c r="B141">
-        <v>92.29</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+      <c r="B142" s="1">
+        <v>84.35</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+    </row>
+    <row r="143" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="2">
         <v>44075</v>
       </c>
-      <c r="B142">
-        <v>86.07</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
+      <c r="B143" s="1">
+        <v>79.73</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+    </row>
+    <row r="144" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="2">
         <v>44105</v>
       </c>
-      <c r="B143">
-        <v>81.87</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
+      <c r="B144" s="1">
+        <v>74.150000000000006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="2">
         <v>44136</v>
       </c>
-      <c r="B144">
-        <v>75.17</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
+      <c r="B145" s="1">
+        <v>67.27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="2">
         <v>44166</v>
       </c>
-      <c r="B145">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
+      <c r="B146" s="1">
+        <v>56.47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="2">
         <v>44197</v>
       </c>
-      <c r="B146">
-        <v>64.23</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
+      <c r="B147" s="1">
+        <v>55.44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="2">
         <v>44228</v>
       </c>
-      <c r="B147">
-        <v>63.46</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
+      <c r="B148" s="1">
+        <v>54.64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="2">
         <v>44256</v>
       </c>
-      <c r="B148">
-        <v>75.06</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
+      <c r="B149" s="1">
+        <v>66.650000000000006</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="2">
         <v>44287</v>
       </c>
-      <c r="B149">
-        <v>77.400000000000006</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
+      <c r="B150" s="1">
+        <v>69.67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="2">
         <v>44317</v>
       </c>
-      <c r="B150">
-        <v>84.45</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
+      <c r="B151" s="1">
+        <v>77.45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="2">
         <v>44348</v>
       </c>
-      <c r="B151">
-        <v>89.6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
+      <c r="B152" s="1">
+        <v>82.92</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="2">
         <v>44378</v>
       </c>
-      <c r="B152">
-        <v>91.9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
+      <c r="B153" s="1">
+        <v>84.94</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="2">
         <v>44409</v>
       </c>
-      <c r="B153">
-        <v>92.81</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
+      <c r="B154" s="1">
+        <v>85.26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="2">
         <v>44440</v>
       </c>
-      <c r="B154">
-        <v>86.23</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
+      <c r="B155" s="1">
+        <v>79.37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="2">
         <v>44470</v>
       </c>
-      <c r="B155">
-        <v>82.48</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
+      <c r="B156" s="1">
+        <v>75.44</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="2">
         <v>44501</v>
       </c>
-      <c r="B156">
-        <v>70.430000000000007</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
+      <c r="B157" s="1">
+        <v>61.35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="2">
         <v>44531</v>
       </c>
-      <c r="B157">
-        <v>73.650000000000006</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
+      <c r="B158" s="1">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+    </row>
+    <row r="159" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="2">
         <v>44562</v>
       </c>
-      <c r="B158">
-        <v>61.77</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
+      <c r="B159" s="1">
+        <v>52.08</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="2">
         <v>44593</v>
       </c>
-      <c r="B159">
-        <v>66.75</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
+      <c r="B160" s="1">
+        <v>57.43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="2">
         <v>44621</v>
       </c>
-      <c r="B160">
-        <v>73.48</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
+      <c r="B161" s="1">
+        <v>63.48</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="2">
         <v>44652</v>
       </c>
-      <c r="B161">
-        <v>79.7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
+      <c r="B162" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+    </row>
+    <row r="163" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="2">
         <v>44682</v>
       </c>
-      <c r="B162">
-        <v>88.06</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
+      <c r="B163" s="1">
+        <v>79.95</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="2">
         <v>44713</v>
       </c>
-      <c r="B163">
-        <v>92.67</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="2">
+      <c r="B164" s="1">
+        <v>85.12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="2">
         <v>44743</v>
       </c>
-      <c r="B164">
-        <v>91.13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
+      <c r="B165" s="1">
+        <v>84.06</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="2">
         <v>44774</v>
       </c>
-      <c r="B165">
-        <v>89.1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
+      <c r="B166" s="1">
+        <v>82.73</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="2">
         <v>44805</v>
       </c>
-      <c r="B166">
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
+      <c r="B167" s="1">
+        <v>80.62</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="2">
         <v>44835</v>
       </c>
-      <c r="B167">
-        <v>79.94</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
+      <c r="B168" s="1">
+        <v>70.02</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="2">
         <v>44866</v>
       </c>
-      <c r="B168">
-        <v>70.53</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
+      <c r="B169" s="1">
+        <v>63.08</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="2">
         <v>44896</v>
       </c>
-      <c r="B169">
-        <v>66.39</v>
+      <c r="B170" s="1">
+        <v>59.05</v>
+      </c>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="2">
+        <v>44927</v>
+      </c>
+      <c r="B171" s="1">
+        <v>61.08</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B172" s="1">
+        <v>63.96</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B173" s="1">
+        <v>67.63</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B174" s="1">
+        <v>70.11</v>
       </c>
     </row>
   </sheetData>
